--- a/premium/src/main/resources/AnnualCheckUp.xlsx
+++ b/premium/src/main/resources/AnnualCheckUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2724E0-8130-4E41-B0D0-4B66AE0B9FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B94D6B0-F092-514D-94A7-70307EBEF7AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{9F2811DC-AE56-3642-A3F8-7F4160F7C7EC}"/>
   </bookViews>
@@ -56,6 +56,7 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,18 +64,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -456,7 +460,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,31 +505,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>700</v>
+        <v>1194</v>
       </c>
       <c r="C2" s="4">
-        <v>800</v>
+        <v>1194</v>
       </c>
       <c r="D2" s="4">
-        <v>900</v>
+        <v>1194</v>
       </c>
       <c r="E2" s="4">
-        <v>1000</v>
+        <v>1194</v>
       </c>
       <c r="F2" s="4">
-        <v>1100</v>
+        <v>1791</v>
       </c>
       <c r="G2" s="4">
-        <v>1200</v>
+        <v>1791</v>
       </c>
       <c r="H2" s="4">
-        <v>1200</v>
+        <v>1791</v>
       </c>
       <c r="I2" s="4">
-        <v>1200</v>
+        <v>1791</v>
       </c>
       <c r="J2" s="4">
-        <v>1200</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -533,31 +537,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1120</v>
+        <v>1194</v>
       </c>
       <c r="C3" s="4">
-        <v>1280</v>
+        <v>1194</v>
       </c>
       <c r="D3" s="4">
-        <v>1440</v>
+        <v>1194</v>
       </c>
       <c r="E3" s="4">
-        <v>1600</v>
+        <v>1194</v>
       </c>
       <c r="F3" s="4">
-        <v>1760</v>
+        <v>1791</v>
       </c>
       <c r="G3" s="4">
-        <v>1920</v>
+        <v>1791</v>
       </c>
       <c r="H3" s="4">
-        <v>1920</v>
+        <v>1791</v>
       </c>
       <c r="I3" s="4">
-        <v>1920</v>
+        <v>1791</v>
       </c>
       <c r="J3" s="4">
-        <v>1920</v>
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
